--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Douglas\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Douglas\Documents\GitHub\celebrity-geniuses\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -962,11 +962,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="416130904"/>
-        <c:axId val="416127376"/>
+        <c:axId val="320281088"/>
+        <c:axId val="320282264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="416130904"/>
+        <c:axId val="320281088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -995,7 +995,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="416127376"/>
+        <c:crossAx val="320282264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1003,7 +1003,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="416127376"/>
+        <c:axId val="320282264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1032,7 +1032,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="416130904"/>
+        <c:crossAx val="320281088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1349,8 +1349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C204"/>
   <sheetViews>
-    <sheetView topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="A123" sqref="A123"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B125" sqref="B125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3607,8 +3607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="U38" sqref="U38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4734,8 +4734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L203"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AG22" sqref="AG22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
